--- a/Texts/Город Сокровищ/Все персонажи/Кеклеон (фиолетовый).xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Кеклеон (фиолетовый).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -55,6 +55,33 @@
   </si>
   <si>
     <t xml:space="preserve"> Óñôäîï ðïâåñéóû, œóï âú îå óàë\näàâîï òóàìé éòòìåäïâàóåìÿíé! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The guild is going on an\nexpedition, I hear! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ah, it has been a long time! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я слышал, что гильдия готовит\nэкспедицию!♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ах, давно пора! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ òìúšàì, œóï ãéìûäéÿ ãïóïâéó\nüëòðåäéøéý!♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Àö, äàâîï ðïñà! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I hope you enjoy yourselves on\nthe guild\'s expedition! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я надеюсь, вам понравится\nэкспедиция! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ îàäåýòû, âàí ðïîñàâéóòÿ\nüëòðåäéøéÿ! ♪</t>
   </si>
 </sst>
 </file>
@@ -85,7 +112,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -117,11 +144,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -136,6 +183,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -418,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -469,17 +528,62 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="4">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6">
         <v>417</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="7" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="4">
+        <v>387</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6">
+        <v>390</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8">
+        <v>363</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Кеклеон (фиолетовый).xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Кеклеон (фиолетовый).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -82,6 +82,24 @@
   </si>
   <si>
     <t xml:space="preserve"> Ÿ îàäåýòû, âàí ðïîñàâéóòÿ\nüëòðåäéøéÿ! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Welcome back! ♪[K] Back to your\nguild training, eh?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We hope for your continued\npatronage of our humble business! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> С возвращением! ♪[K] Снова\nтренируетесь в гильдии, да?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы надеемся, что вы и дальше\nбудете поддерживать наше скромное дело! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ò âïèâñàþåîéåí! ♪[K] Òîïâà\nóñåîéñôåóåòû â ãéìûäéé, äà?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú îàäååíòÿ, œóï âú é äàìûšå\náôäåóå ðïääåñçéâàóû îàšå òëñïíîïå äåìï! ♪</t>
   </si>
 </sst>
 </file>
@@ -477,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -586,6 +604,34 @@
         <v>20</v>
       </c>
     </row>
+    <row r="7" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="4">
+        <v>322</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B8" s="4">
+        <v>325</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Texts/Город Сокровищ/Все персонажи/Кеклеон (фиолетовый).xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Кеклеон (фиолетовый).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -100,6 +100,15 @@
   </si>
   <si>
     <t xml:space="preserve"> Íú îàäååíòÿ, œóï âú é äàìûšå\náôäåóå ðïääåñçéâàóû îàšå òëñïíîïå äåìï! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Surely, the great [CS:N]Dusknoir[CR] will\nbring that terrible [CS:N]Grovyle[CR] to justice.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïðñåäåìæîîï, âåìéëéê [CS:N]Äàòëîôàñ[CR]\nðñåäàòó üóïãï ôçàòîïãï [CS:N]Ãñïâàêìà[CR]\nðñàâïòôäéý.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Определённо, великий [CS:N]Даскнуар[CR]\nпредаст этого ужасного [CS:N]Гровайла[CR]\nправосудию.</t>
   </si>
 </sst>
 </file>
@@ -495,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -619,17 +628,33 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B8" s="4">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6">
         <v>325</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="7" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8">
+        <v>284</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Кеклеон (фиолетовый).xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Кеклеон (фиолетовый).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -109,6 +109,33 @@
   </si>
   <si>
     <t xml:space="preserve"> Определённо, великий [CS:N]Даскнуар[CR]\nпредаст этого ужасного [CS:N]Гровайла[CR]\nправосудию.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ah, welcome back, [hero]\nand [partner]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ahhh! We are happy to see you!\nWe were so very worried about you!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ах, с возвращением, [hero]\nи [partner]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Аххх! Мы так рады вас видеть!\nМы очень за вас переживали!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Àö, ò âïèâñàþåîéåí, [hero]\né [partner]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Àööö! Íú óàë ñàäú âàò âéäåóû!\nÍú ïœåîû èà âàò ðåñåçéâàìé!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Our thoughts go with you!\nPlease be strong!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Все наши мысли только о вас!\nБудьте сильны!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âòå îàšé íúòìé óïìûëï ï âàò!\nÁôäûóå òéìûîú!</t>
   </si>
 </sst>
 </file>
@@ -504,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -657,6 +684,50 @@
         <v>28</v>
       </c>
     </row>
+    <row r="10" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="4">
+        <v>243</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6">
+        <v>246</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8">
+        <v>205</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Texts/Город Сокровищ/Все персонажи/Кеклеон (фиолетовый).xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Кеклеон (фиолетовый).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -136,6 +136,24 @@
   </si>
   <si>
     <t xml:space="preserve"> Âòå îàšé íúòìé óïìûëï ï âàò!\nÁôäûóå òéìûîú!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You\'ve graduated!\nCongratulations!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We hope for your continued\npatronage and generosity! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вы выпускники! Поздравляю!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы надеемся на ваше дальнейшее\nпокровительство и щедрость! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âú âúðôòëîéëé! Ðïèäñàâìÿý!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú îàäååíòÿ îà âàšå äàìûîåêšåå\nðïëñïâéóåìûòóâï é þåäñïòóû! ♪</t>
   </si>
 </sst>
 </file>
@@ -531,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -728,6 +746,34 @@
         <v>38</v>
       </c>
     </row>
+    <row r="13" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="4">
+        <v>164</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B14" s="4">
+        <v>167</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Texts/Город Сокровищ/Все персонажи/Кеклеон (фиолетовый).xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Кеклеон (фиолетовый).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -154,6 +154,87 @@
   </si>
   <si>
     <t xml:space="preserve"> Íú îàäååíòÿ îà âàšå äàìûîåêšåå\nðïëñïâéóåìûòóâï é þåäñïòóû! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> My brother is waiting for a\nchance to speed over to see Team [CS:X]Charm[CR].\nIt\'s quite annoying!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For when that very chance\narrives...[K] I intend to dash first!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мой брат очень хочет поскорее\nулизнуть из магазина, чтобы повидать\nКоманду [CS:X]Шарм[CR]. Как это меня раздражает!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Когда представится возможность...[K]\nЯ побегу к ним первым!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íïê áñàó ïœåîû öïœåó ðïòëïñåå\nôìéèîôóû éè íàãàèéîà, œóïáú ðïâéäàóû\nËïíàîäô [CS:X]Šàñí[CR]. Ëàë üóï íåîÿ ñàèäñàçàåó!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëïãäà ðñåäòóàâéóòÿ âïèíïçîïòóû...[K]\nŸ ðïáåãô ë îéí ðåñâúí!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...Hmmm…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What could it possibly be? What\nhas made little [CS:N]Azurill[CR] unable to wake?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I do hope the dear child will\nawaken and brighten our day with his cheer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...Хммм...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что же это может быть? Почему\nмалютка [CS:N]Азурилл[CR] не может проснуться?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Надеюсь, что малыш проснётся и\nснова обрадует нас своей жизнерадостностью.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...Öííí...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï çå üóï íïçåó áúóû? Ðïœåíô\níàìýóëà [CS:N]Àèôñéìì[CR] îå íïçåó ðñïòîôóûòÿ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàäåýòû, œóï íàìúš ðñïòîæóòÿ é\nòîïâà ïáñàäôåó îàò òâïåê çéèîåñàäïòóîïòóûý.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Please don\'t succumb to\nanyone bad!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Go forward to victory! Fight!\nFight!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Прошу, не уступите негодяям!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вперёд, к победе! Сражайтесь!\nБоритесь!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðñïšô, îå ôòóôðéóå îåãïäÿÿí!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âðåñæä, ë ðïáåäå! Òñàçàêóåòû!\nÁïñéóåòû!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ah, the returning heroes\nof Team [team:]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I thank you sincerely for\nstopping the spreading nightmare!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ах, наши герои из Команды\n[team:]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я от всего сердца благодарю\nвас, что вы остановили надвигающийся\nкошмар!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Àö, îàšé ãåñïé éè Ëïíàîäú\n[team:]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ïó âòåãï òåñäøà áìàãïäàñý\nâàò, œóï âú ïòóàîïâéìé îàäâéãàýþéêòÿ\nëïšíàñ!</t>
   </si>
 </sst>
 </file>
@@ -549,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -761,17 +842,147 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B14" s="4">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6">
         <v>167</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="7" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="B15" s="4">
+        <v>137</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6">
+        <v>140</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="4">
+        <v>79</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B18" s="4">
+        <v>82</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6">
+        <v>85</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="4">
+        <v>52</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6">
+        <v>55</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B22" s="4">
+        <v>25</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B23" s="4">
+        <v>28</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
